--- a/assets/ListProduct.xlsx
+++ b/assets/ListProduct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Laptop\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Laptop\Downloads\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB082B28-3F2C-4727-A40A-8BF3C94FAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30C76E-8727-4514-8774-5F6044B202C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{32EC40F8-A406-4275-994C-CB99B0311B69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="541">
   <si>
     <t>Áo len sọc lớn màu</t>
   </si>
@@ -188,21 +188,6 @@
     <t>Áo sơmi nam - Mate</t>
   </si>
   <si>
-    <t>Shorts khaki unisex - Color wash</t>
-  </si>
-  <si>
-    <t>Shorts khaki nam - 10201</t>
-  </si>
-  <si>
-    <t>Shorts khaki nam - 07201</t>
-  </si>
-  <si>
-    <t>Shorts khaki unisex - Classic</t>
-  </si>
-  <si>
-    <t>Shorts khaki nam - Classic</t>
-  </si>
-  <si>
     <t>Quần short M1SKK03201BSFTR</t>
   </si>
   <si>
@@ -302,15 +287,9 @@
     <t>Đồ nữ, áo thun nữ, áo thun tay ngắn nữ</t>
   </si>
   <si>
-    <t>Áo thun W2ATN09206FOSHT</t>
-  </si>
-  <si>
     <t>Áo thun W2ATN09205FOSHT</t>
   </si>
   <si>
-    <t>Áo thun W2ATN09204FOSHT</t>
-  </si>
-  <si>
     <t>Áo thun W2ATN09203FOSHT</t>
   </si>
   <si>
@@ -401,9 +380,6 @@
     <t>Quần short W2SKK12101FSFTR</t>
   </si>
   <si>
-    <t>Shorts jean nữ Wash - 10205</t>
-  </si>
-  <si>
     <t>Đồ nữ, quần short nữ , quần short jean nữ</t>
   </si>
   <si>
@@ -1002,16 +978,703 @@
   </si>
   <si>
     <t>women/75.jpg</t>
+  </si>
+  <si>
+    <t>black, green, orange</t>
+  </si>
+  <si>
+    <t>men/1-a.jpg, men/1-b.jpg, men/1-c.jpg</t>
+  </si>
+  <si>
+    <t>M, L, XL</t>
+  </si>
+  <si>
+    <t>men/2-a.jpg, men/2-b.jpg</t>
+  </si>
+  <si>
+    <t>brown, green, brown cream</t>
+  </si>
+  <si>
+    <t>men/3-a.jpg, men/3-b.jpg, men/3-c.jpg</t>
+  </si>
+  <si>
+    <t>black, grey, blue, brown, white</t>
+  </si>
+  <si>
+    <t>black, brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/4-a.jpg, men/4-b.jpg, men/4-c.jpg, men/4-d.jpg, men/4-e.jpg  </t>
+  </si>
+  <si>
+    <t>men/5-a.jpg, men/5-b.jpg</t>
+  </si>
+  <si>
+    <t>cream, black ,blue, yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/6-a.jpg, men/6-b.jpg, men/6-c.jpg, men/6-d.jpg </t>
+  </si>
+  <si>
+    <t>black, blue, green</t>
+  </si>
+  <si>
+    <t>men/7-a.jpg, men/7-b.jpg, men/7-c.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, pink, yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/8-a.jpg, men/8-b.jpg, men/8-c.jpg, men/8-d.jpg </t>
+  </si>
+  <si>
+    <t>black, blue, yellow, red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/9-a.jpg, men/9-b.jpg, men/9-c.jpg, men/9-d.jpg </t>
+  </si>
+  <si>
+    <t>L, XL, 2XL</t>
+  </si>
+  <si>
+    <t>L, XL</t>
+  </si>
+  <si>
+    <t>black, grey, green</t>
+  </si>
+  <si>
+    <t>men/10-a.jpg, men/10-b.jpg, men/10-c.jpg</t>
+  </si>
+  <si>
+    <t>men/11-a.jpg, men/11-b.jpg, men/11-c.jpg</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>men/12-a.jpg</t>
+  </si>
+  <si>
+    <t>men/14-a.jpg</t>
+  </si>
+  <si>
+    <t>men/15-a.jpg</t>
+  </si>
+  <si>
+    <t>men/16-a.jpg</t>
+  </si>
+  <si>
+    <t>men/17-a.jpg</t>
+  </si>
+  <si>
+    <t>pink, black, green, brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/13-a.jpg, men/13-b.jpg, men/13-c.jpg, men/13-d.jpg </t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>2XL</t>
+  </si>
+  <si>
+    <t>XL, 2XL</t>
+  </si>
+  <si>
+    <t>black, grey, white</t>
+  </si>
+  <si>
+    <t>men/18-a.jpg, men/18-b.jpg, men/18-c.jpg</t>
+  </si>
+  <si>
+    <t>cream, black, white</t>
+  </si>
+  <si>
+    <t>men/19-a.jpg, men/19-b.jpg, men/19-c.jpg</t>
+  </si>
+  <si>
+    <t>M, L</t>
+  </si>
+  <si>
+    <t>brown, white</t>
+  </si>
+  <si>
+    <t>brown, orange</t>
+  </si>
+  <si>
+    <t>men/21-a.jpg, men/21-b.jpg</t>
+  </si>
+  <si>
+    <t>men/22-a.jpg, men/22-b.jpg, men/22-c.jpg</t>
+  </si>
+  <si>
+    <t>black, green, white</t>
+  </si>
+  <si>
+    <t>men/23-a.jpg, men/23-b.jpg, men/23-c.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, green, pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/24-a.jpg, men/24-b.jpg, men/24-c.jpg, men/24-d.jpg </t>
+  </si>
+  <si>
+    <t>blue, white</t>
+  </si>
+  <si>
+    <t>men/25-a.jpg, men/25-b.jpg</t>
+  </si>
+  <si>
+    <t>cream, black, green</t>
+  </si>
+  <si>
+    <t>men/26-a.jpg, men/26-b.jpg, men/26-c.jpg</t>
+  </si>
+  <si>
+    <t>cream, blue, white</t>
+  </si>
+  <si>
+    <t>men/27-a.jpg, men/27-b.jpg, men/27-c.jpg</t>
+  </si>
+  <si>
+    <t>men/28-a.jpg, men/28-b.jpg, men/28-c.jpg</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>men/29-a.jpg</t>
+  </si>
+  <si>
+    <t>black, orange</t>
+  </si>
+  <si>
+    <t>men/30-a.jpg, men/30-b.jpg</t>
+  </si>
+  <si>
+    <t>M, L, XL, 2XL</t>
+  </si>
+  <si>
+    <t>men/35-a.jpg, men/35-b.jpg</t>
+  </si>
+  <si>
+    <t>men/43-a.jpg, men/43-b.jpg</t>
+  </si>
+  <si>
+    <t>black, white</t>
+  </si>
+  <si>
+    <t>men/39-a.jpg, men/39-b.jpg, men/39-c.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, green, brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/40-a.jpg, men/40-b.jpg, men/40-c.jpg, men/40-d.jpg </t>
+  </si>
+  <si>
+    <t>black, cream, white</t>
+  </si>
+  <si>
+    <t>men/41-a.jpg, men/41-b.jpg, men/41-c.jpg</t>
+  </si>
+  <si>
+    <t>cream, green, red</t>
+  </si>
+  <si>
+    <t>men/42-a.jpg, men/42-b.jpg, men/42-c.jpg</t>
+  </si>
+  <si>
+    <t>cream, grey, white</t>
+  </si>
+  <si>
+    <t>men/44-a.jpg, men/44-b.jpg, men/44-c.jpg</t>
+  </si>
+  <si>
+    <t>men/45-a.jpg, men/45-b.jpg, men/45-c.jpg</t>
+  </si>
+  <si>
+    <t>Shorts kaki nam - 10201</t>
+  </si>
+  <si>
+    <t>Shorts kaki nam - 07201</t>
+  </si>
+  <si>
+    <t>Shorts kaki unisex - Color wash</t>
+  </si>
+  <si>
+    <t>Shorts kaki unisex - Classic</t>
+  </si>
+  <si>
+    <t>Shorts kaki nam - Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream, black, grey, white </t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/46-a.jpg, men/46-b.jpg, men/46-c.jpg, men/46-d.jpg </t>
+  </si>
+  <si>
+    <t>28, 29, 30, 31, 32, 34, 36</t>
+  </si>
+  <si>
+    <t>red, black, grey, blue, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/47-a.jpg, men/47-b.jpg, men/47-c.jpg, men/47-d.jpg, men/47-e.jpg  </t>
+  </si>
+  <si>
+    <t>cream, black, grey</t>
+  </si>
+  <si>
+    <t>men/48-a.jpg, men/48-b.jpg, men/48-c.jpg</t>
+  </si>
+  <si>
+    <t>S, M, L, XL</t>
+  </si>
+  <si>
+    <t>cream, black, pink, red, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/49-a.jpg, men/49-b.jpg, men/49-c.jpg, men/49-d.jpg, men/49-e.jpg  </t>
+  </si>
+  <si>
+    <t>black, grey, brown</t>
+  </si>
+  <si>
+    <t>men/50-a.jpg, men/50-b.jpg, men/50-c.jpg</t>
+  </si>
+  <si>
+    <t>29, 30, 31, 32, 34, 36</t>
+  </si>
+  <si>
+    <t>men/51-a.jpg, men/51-b.jpg, men/51-c.jpg</t>
+  </si>
+  <si>
+    <t>29, 30, 31</t>
+  </si>
+  <si>
+    <t>men/52-a.jpg</t>
+  </si>
+  <si>
+    <t>men/59-a.jpg</t>
+  </si>
+  <si>
+    <t>men/60-a.jpg</t>
+  </si>
+  <si>
+    <t>men/61-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/53-a.jpg, men/53-b.jpg, men/53-c.jpg, men/53-d.jpg </t>
+  </si>
+  <si>
+    <t>29, 30, 31, 32, 34</t>
+  </si>
+  <si>
+    <t>blue, green, yellow, orange</t>
+  </si>
+  <si>
+    <t>28, 29, 30, 31, 32, 34</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>men/65-a.jpg</t>
+  </si>
+  <si>
+    <t>men/66-a.jpg</t>
+  </si>
+  <si>
+    <t>28, 29, 30, 31, 32, 36</t>
+  </si>
+  <si>
+    <t>men/62-a.jpg, men/62-b.jpg, men/62-c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/63-a.jpg, men/63-b.jpg, men/63-c.jpg, men/63-d.jpg </t>
+  </si>
+  <si>
+    <t>cream, black, blue, green, orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/64-a.jpg, men/64-b.jpg, men/64-c.jpg, men/64-d.jpg, men/64-e.jpg  </t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>men/70-a.jpg, men/70-b.jpg, men/70-c.jpg</t>
+  </si>
+  <si>
+    <t>dark grey, black, grey</t>
+  </si>
+  <si>
+    <t>men/71-a.jpg, men/71-b.jpg, men/71-c.jpg</t>
+  </si>
+  <si>
+    <t>beige, light grey, light blue, pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/72-a.jpg, men/72-b.jpg, men/72-c.jpg, men/72-d.jpg </t>
+  </si>
+  <si>
+    <t>cream, black, green, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/73-a.jpg, men/73-b.jpg, men/73-c.jpg, men/73-d.jpg </t>
+  </si>
+  <si>
+    <t>blue, green, orange, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men/74-a.jpg, men/74-b.jpg, men/74-c.jpg, men/74-d.jpg </t>
+  </si>
+  <si>
+    <t>black, brown, white</t>
+  </si>
+  <si>
+    <t>men/75-a.jpg, men/75-b.jpg, men/75-c.jpg</t>
+  </si>
+  <si>
+    <t>women/2-a.jpg, women/2-b.jpg, women/2-c.jpg</t>
+  </si>
+  <si>
+    <t>women/5-a.jpg, women/5-b.jpg, women/5-c.jpg</t>
+  </si>
+  <si>
+    <t>women/8-a.jpg, women/8-b.jpg, women/8-c.jpg</t>
+  </si>
+  <si>
+    <t>women/11-a.jpg, women/11-b.jpg, women/11-c.jpg</t>
+  </si>
+  <si>
+    <t>women/1-a.jpg, women/1-b.jpg, women/1-c.jpg, women/1-d.jpg, women/1-e.jpg, women/1-f.jpg</t>
+  </si>
+  <si>
+    <t>yellow, cream, grey, blue, green, pink purple</t>
+  </si>
+  <si>
+    <t>purple, pink, yellow</t>
+  </si>
+  <si>
+    <t>Áo thun - Priceless</t>
+  </si>
+  <si>
+    <t>women/3-a.jpg</t>
+  </si>
+  <si>
+    <t>Áo thun W2ATN08203BOSBA</t>
+  </si>
+  <si>
+    <t>pink, cream, black, blue, yellow</t>
+  </si>
+  <si>
+    <t>women/4-a.jpg, women/4-b.jpg, women/4-c.jpg, women/4-d.jpg, women/4-e.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, pink, white</t>
+  </si>
+  <si>
+    <t>women/6-a.jpg, women/6-b.jpg, women/6-c.jpg, women/6-d.jpg</t>
+  </si>
+  <si>
+    <t>women/7-a.jpg, women/7-b.jpg, women/7-c.jpg, women/7-d.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, orange, white</t>
+  </si>
+  <si>
+    <t>beige, pink, black</t>
+  </si>
+  <si>
+    <t>cream, black, blue, yellow</t>
+  </si>
+  <si>
+    <t>women/9-a.jpg, women/9-b.jpg, women/9-c.jpg, women/9-d.jpg</t>
+  </si>
+  <si>
+    <t>black, blue, white, orange</t>
+  </si>
+  <si>
+    <t>women/10-a.jpg, women/10-b.jpg, women/10-c.jpg, women/10-d.jpg</t>
+  </si>
+  <si>
+    <t>pink, black, blue</t>
+  </si>
+  <si>
+    <t>pink, black, white, yellow</t>
+  </si>
+  <si>
+    <t>women/12-a.jpg, women/12-b.jpg, women/12-c.jpg, women/12-d.jpg</t>
+  </si>
+  <si>
+    <t>light yellow, white</t>
+  </si>
+  <si>
+    <t>women/13-a.jpg, women/13-b.jpg</t>
+  </si>
+  <si>
+    <t>pink, red pink</t>
+  </si>
+  <si>
+    <t>women/14-a.jpg, women/14-b.jpg</t>
+  </si>
+  <si>
+    <t>women/15-a.jpg, women/15-b.jpg</t>
+  </si>
+  <si>
+    <t>women/16-a.jpg, women/16-b.jpg</t>
+  </si>
+  <si>
+    <t>women/17-a.jpg, women/17-b.jpg</t>
+  </si>
+  <si>
+    <t>women/18-a.jpg, women/18-b.jpg</t>
+  </si>
+  <si>
+    <t>black, red</t>
+  </si>
+  <si>
+    <t>women/19-a.jpg, women/19-b.jpg, women/19-c.jpg</t>
+  </si>
+  <si>
+    <t>women/20-a.jpg</t>
+  </si>
+  <si>
+    <t>cream, pink, white</t>
+  </si>
+  <si>
+    <t>women/27-a.jpg, women/27-b.jpg, women/27-c.jpg</t>
+  </si>
+  <si>
+    <t>women/28-a.jpg, women/28-b.jpg, women/28-c.jpg</t>
+  </si>
+  <si>
+    <t>black, pink, yellow</t>
+  </si>
+  <si>
+    <t>women/21-a.jpg, women/21-b.jpg, women/21-c.jpg</t>
+  </si>
+  <si>
+    <t>pink, yellow, orange</t>
+  </si>
+  <si>
+    <t>women/22-a.jpg, women/22-b.jpg, women/22-c.jpg</t>
+  </si>
+  <si>
+    <t>women/23-a.jpg, women/23-b.jpg, women/23-c.jpg</t>
+  </si>
+  <si>
+    <t>women/33-a.jpg, women/33-b.jpg, women/33-c.jpg</t>
+  </si>
+  <si>
+    <t>women/43-a.jpg, women/43-b.jpg, women/43-c.jpg</t>
+  </si>
+  <si>
+    <t>women/44-a.jpg, women/44-b.jpg, women/44-c.jpg</t>
+  </si>
+  <si>
+    <t>dark blue, green, pink white</t>
+  </si>
+  <si>
+    <t>women/24-a.jpg, women/24-b.jpg, women/24-c.jpg, women/24-d.jpg</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>women/25-a.jpg</t>
+  </si>
+  <si>
+    <t>women/42-a.jpg</t>
+  </si>
+  <si>
+    <t>cream, green, pink, white</t>
+  </si>
+  <si>
+    <t>women/26-a.jpg, women/26-b.jpg, women/26-c.jpg, women/26-d.jpg</t>
+  </si>
+  <si>
+    <t>women/29-a.jpg, women/29-b.jpg</t>
+  </si>
+  <si>
+    <t>brown, black</t>
+  </si>
+  <si>
+    <t>S, M, L</t>
+  </si>
+  <si>
+    <t>S, M</t>
+  </si>
+  <si>
+    <t>women/30-a.jpg, women/30-b.jpg</t>
+  </si>
+  <si>
+    <t>Quần short W2SJN03202FBGTR</t>
+  </si>
+  <si>
+    <t>light blue, blue</t>
+  </si>
+  <si>
+    <t>black, blue</t>
+  </si>
+  <si>
+    <t>women/32-a.jpg, women/32-b.jpg</t>
+  </si>
+  <si>
+    <t>women/34-a.jpg, women/34-b.jpg</t>
+  </si>
+  <si>
+    <t>women/36-a.jpg, women/36-b.jpg</t>
+  </si>
+  <si>
+    <t>women/37-a.jpg, women/37-b.jpg</t>
+  </si>
+  <si>
+    <t>black, light blue</t>
+  </si>
+  <si>
+    <t>women/38-a.jpg, women/38-b.jpg</t>
+  </si>
+  <si>
+    <t>women/39-a.jpg, women/39-b.jpg</t>
+  </si>
+  <si>
+    <t>dark grey, blue</t>
+  </si>
+  <si>
+    <t>women/40-a.jpg, women/40-b.jpg</t>
+  </si>
+  <si>
+    <t>cream, black</t>
+  </si>
+  <si>
+    <t>women/41-a.jpg, women/41-b.jpg</t>
+  </si>
+  <si>
+    <t>women/49-a.jpg</t>
+  </si>
+  <si>
+    <t>black, light blue, blue</t>
+  </si>
+  <si>
+    <t>grey, light blue, blue</t>
+  </si>
+  <si>
+    <t>women/47-a.jpg, women/47-b.jpg</t>
+  </si>
+  <si>
+    <t>women/48-a.jpg, women/48-b.jpg</t>
+  </si>
+  <si>
+    <t>women/52-a.jpg</t>
+  </si>
+  <si>
+    <t>women/55-a.jpg</t>
+  </si>
+  <si>
+    <t>women/56-a.jpg</t>
+  </si>
+  <si>
+    <t>women/57-a.jpg</t>
+  </si>
+  <si>
+    <t>women/58-a.jpg</t>
+  </si>
+  <si>
+    <t>women/59-a.jpg</t>
+  </si>
+  <si>
+    <t>women/53-a.jpg, women/53-b.jpg</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29</t>
+  </si>
+  <si>
+    <t>women/61-a.jpg, women/61-b.jpg, women/61-c.jpg</t>
+  </si>
+  <si>
+    <t>women/62-a.jpg, women/62-b.jpg, women/62-c.jpg, women/62-d.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange, beige, cream, black, pink </t>
+  </si>
+  <si>
+    <t>women/63-a.jpg, women/63-b.jpg, women/63-c.jpg, women/63-d.jpg, women/63-e.jpg</t>
+  </si>
+  <si>
+    <t>cream, black, brown</t>
+  </si>
+  <si>
+    <t>women/64-a.jpg, women/64-b.jpg, women/64-c.jpg</t>
+  </si>
+  <si>
+    <t>women/65-a.jpg, women/65-b.jpg</t>
+  </si>
+  <si>
+    <t>women/66-a.jpg, women/66-b.jpg, women/66-c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream, pink </t>
+  </si>
+  <si>
+    <t>women/67-a.jpg, women/67-b.jpg</t>
+  </si>
+  <si>
+    <t>women/70-a.jpg, women/70-b.jpg</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>imglink</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>subimglink</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1355,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF436B18-13A7-4CD1-85C3-064380D05698}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,35 +2030,43 @@
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="53.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1">
-        <v>420000</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>420000</v>
@@ -1404,16 +2075,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>420000</v>
@@ -1422,16 +2101,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>420000</v>
@@ -1440,16 +2127,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>420000</v>
@@ -1458,88 +2153,128 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>450000</v>
+        <v>420000</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>450000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>365000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>345000</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>295000</v>
+        <v>345000</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>295000</v>
@@ -1548,52 +2283,76 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>315000</v>
+        <v>295000</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>295000</v>
+        <v>315000</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>295000</v>
@@ -1602,16 +2361,24 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>295000</v>
@@ -1620,16 +2387,24 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>295000</v>
@@ -1638,124 +2413,175 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>265000</v>
+        <v>295000</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>275000</v>
+        <v>265000</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>275000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>325000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>315000</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>365000</v>
+        <v>315000</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>285000</v>
+        <v>365000</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>285000</v>
@@ -1764,16 +2590,24 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>285000</v>
@@ -1782,52 +2616,76 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>315000</v>
+        <v>285000</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>285000</v>
+        <v>315000</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>285000</v>
@@ -1836,52 +2694,76 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>295000</v>
+        <v>285000</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>285000</v>
+        <v>295000</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>285000</v>
@@ -1890,16 +2772,24 @@
         <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>285000</v>
@@ -1908,52 +2798,71 @@
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>285000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>325000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>285000</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>285000</v>
@@ -1962,16 +2871,19 @@
         <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>285000</v>
@@ -1980,34 +2892,40 @@
         <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>315000</v>
+        <v>285000</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>315000</v>
@@ -2016,16 +2934,24 @@
         <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>315000</v>
@@ -2034,34 +2960,39 @@
         <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>285000</v>
+        <v>315000</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>285000</v>
@@ -2070,142 +3001,201 @@
         <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>385000</v>
+        <v>285000</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>355000</v>
+        <v>385000</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
-        <v>385000</v>
+        <v>355000</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C43">
-        <v>285000</v>
+        <v>385000</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>315000</v>
+        <v>285000</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>320000</v>
+        <v>315000</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>320000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46">
-        <v>295000</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>47</v>
-      </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>387</v>
       </c>
       <c r="C47">
         <v>295000</v>
@@ -2214,106 +3204,154 @@
         <v>23</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="C48">
-        <v>345000</v>
+        <v>295000</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="C49">
-        <v>325000</v>
+        <v>345000</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="C50">
-        <v>345000</v>
+        <v>325000</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="C51">
-        <v>285000</v>
+        <v>345000</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>265000</v>
@@ -2322,1757 +3360,2452 @@
         <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>265000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="1">
-        <v>345000</v>
-      </c>
-      <c r="D54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>55</v>
-      </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1">
         <v>345000</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>345000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
         <v>325000</v>
       </c>
-      <c r="D56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="1">
-        <v>345000</v>
-      </c>
-      <c r="D57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>58</v>
-      </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1">
         <v>345000</v>
       </c>
       <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>59</v>
-      </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1">
         <v>345000</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>345000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
         <v>295000</v>
       </c>
-      <c r="D60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="1">
-        <v>345000</v>
-      </c>
-      <c r="D61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>62</v>
-      </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1">
         <v>345000</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
       <c r="C63" s="1">
+        <v>345000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1">
         <v>245000</v>
       </c>
-      <c r="D63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
         <v>325000</v>
       </c>
-      <c r="D64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1">
-        <v>245000</v>
-      </c>
-      <c r="D65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="B66" t="s">
         <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="1">
         <v>245000</v>
       </c>
       <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="C67" s="1">
+        <v>245000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="1">
-        <v>425000</v>
-      </c>
-      <c r="D67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>68</v>
-      </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1">
         <v>425000</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1">
         <v>425000</v>
       </c>
       <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1">
+        <v>425000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C71" s="1">
+        <v>415000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="1">
+        <v>315000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1">
+        <v>345000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="1">
-        <v>415000</v>
-      </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="1">
-        <v>315000</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C74" s="1">
+        <v>285000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>79</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="1">
-        <v>345000</v>
-      </c>
-      <c r="D72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="1">
-        <v>285000</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="1">
-        <v>300000</v>
-      </c>
-      <c r="D74" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
       </c>
       <c r="C75" s="1">
         <v>300000</v>
       </c>
       <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>81</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76">
-        <v>205000</v>
-      </c>
-      <c r="D76" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>88</v>
       </c>
       <c r="C77">
         <v>205000</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78">
+        <v>235000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78">
-        <v>205000</v>
-      </c>
-      <c r="D78" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>79</v>
-      </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C79">
         <v>205000</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80">
+        <v>185000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80">
-        <v>235000</v>
-      </c>
-      <c r="D80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>81</v>
-      </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>235000</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>235000</v>
       </c>
       <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>235000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>87</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83">
-        <v>215000</v>
-      </c>
-      <c r="D83" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>95</v>
       </c>
       <c r="C84">
         <v>215000</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>215000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85">
-        <v>195000</v>
-      </c>
-      <c r="D85" t="s">
-        <v>87</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>86</v>
-      </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>195000</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>195000</v>
       </c>
       <c r="D87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>195000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88">
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
         <v>185000</v>
       </c>
-      <c r="D88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89">
-        <v>245000</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>90</v>
-      </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C90">
         <v>245000</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>245000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91">
-        <v>215000</v>
-      </c>
-      <c r="D91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>92</v>
-      </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C92">
         <v>215000</v>
       </c>
       <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>215000</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>195000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>215000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>100</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="C96">
+        <v>195000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>275000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <v>295000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99">
+        <v>280000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>225000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>265000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="F101" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>225000</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>295000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104">
+        <v>185000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105">
+        <v>230000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="C93">
-        <v>195000</v>
-      </c>
-      <c r="D93" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106">
+        <v>225000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="C94">
-        <v>215000</v>
-      </c>
-      <c r="D94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="B107" t="s">
+        <v>494</v>
+      </c>
+      <c r="C107">
+        <v>265000</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="C95">
-        <v>195000</v>
-      </c>
-      <c r="D95" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108">
+        <v>345000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="C96">
-        <v>275000</v>
-      </c>
-      <c r="D96" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97">
-        <v>295000</v>
-      </c>
-      <c r="D97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98">
-        <v>280000</v>
-      </c>
-      <c r="D98" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99">
-        <v>225000</v>
-      </c>
-      <c r="D99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100">
-        <v>265000</v>
-      </c>
-      <c r="D100" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101">
-        <v>225000</v>
-      </c>
-      <c r="D101" t="s">
-        <v>109</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102">
-        <v>295000</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="B109" t="s">
         <v>116</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103">
-        <v>185000</v>
-      </c>
-      <c r="D103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104">
-        <v>230000</v>
-      </c>
-      <c r="D104" t="s">
-        <v>119</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105">
-        <v>225000</v>
-      </c>
-      <c r="D105" t="s">
-        <v>119</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106">
-        <v>330000</v>
-      </c>
-      <c r="D106" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C107">
-        <v>345000</v>
-      </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108">
-        <v>330000</v>
-      </c>
-      <c r="D108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>125</v>
       </c>
       <c r="C109">
         <v>330000</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>330000</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111">
+        <v>330000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111">
-        <v>325000</v>
-      </c>
-      <c r="D111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>112</v>
-      </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C112">
         <v>325000</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C113">
         <v>325000</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>325000</v>
       </c>
       <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="C115">
+        <v>325000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115">
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116">
         <v>240000</v>
       </c>
-      <c r="D115" t="s">
-        <v>122</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116">
-        <v>385000</v>
-      </c>
-      <c r="D116" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>117</v>
-      </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C117">
         <v>385000</v>
       </c>
       <c r="D117" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118">
+        <v>385000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>135</v>
-      </c>
-      <c r="C118">
-        <v>425000</v>
-      </c>
-      <c r="D118" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>119</v>
-      </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>425000</v>
       </c>
       <c r="D119" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120">
+        <v>425000</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120">
-        <v>450000</v>
-      </c>
-      <c r="D120" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>121</v>
-      </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C121">
         <v>450000</v>
       </c>
       <c r="D121" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C122">
         <v>450000</v>
       </c>
       <c r="D122" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C123">
         <v>450000</v>
       </c>
       <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124">
+        <v>450000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125">
+        <v>315000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
+        <v>425000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>136</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124">
-        <v>315000</v>
-      </c>
-      <c r="D124" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125">
-        <v>425000</v>
-      </c>
-      <c r="D125" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126">
-        <v>440000</v>
-      </c>
-      <c r="D126" t="s">
-        <v>136</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>145</v>
       </c>
       <c r="C127">
         <v>440000</v>
       </c>
       <c r="D127" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="H127" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128">
+        <v>440000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129">
+        <v>425000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130">
+        <v>450000</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="H130" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131">
+        <v>295000</v>
+      </c>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132">
+        <v>325000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133">
+        <v>315000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134">
+        <v>360000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>139</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135">
+        <v>440000</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136">
+        <v>325000</v>
+      </c>
+      <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="H136" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>146</v>
-      </c>
-      <c r="C128">
-        <v>425000</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="B137" t="s">
         <v>147</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="C137">
+        <v>345000</v>
+      </c>
+      <c r="D137" t="s">
+        <v>148</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129">
-        <v>450000</v>
-      </c>
-      <c r="D129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="F137" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
         <v>149</v>
-      </c>
-      <c r="C130">
-        <v>295000</v>
-      </c>
-      <c r="D130" t="s">
-        <v>147</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131">
-        <v>325000</v>
-      </c>
-      <c r="D131" t="s">
-        <v>147</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132">
-        <v>315000</v>
-      </c>
-      <c r="D132" t="s">
-        <v>147</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>152</v>
-      </c>
-      <c r="C133">
-        <v>360000</v>
-      </c>
-      <c r="D133" t="s">
-        <v>147</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134">
-        <v>440000</v>
-      </c>
-      <c r="D134" t="s">
-        <v>147</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135">
-        <v>325000</v>
-      </c>
-      <c r="D135" t="s">
-        <v>147</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136">
-        <v>345000</v>
-      </c>
-      <c r="D136" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137">
-        <v>215000</v>
-      </c>
-      <c r="D137" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>158</v>
       </c>
       <c r="C138">
         <v>215000</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139">
+        <v>215000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139">
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140">
         <v>220000</v>
       </c>
-      <c r="D139" t="s">
-        <v>156</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="D140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140">
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141">
         <v>240000</v>
       </c>
-      <c r="D140" t="s">
-        <v>156</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>161</v>
-      </c>
-      <c r="C141">
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142">
         <v>235000</v>
       </c>
-      <c r="D141" t="s">
-        <v>156</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="D142" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142">
-        <v>225000</v>
-      </c>
-      <c r="D142" t="s">
-        <v>156</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>143</v>
-      </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C143">
         <v>225000</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C144">
         <v>225000</v>
       </c>
       <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="H144" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
         <v>156</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="C145">
+        <v>225000</v>
+      </c>
+      <c r="D145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="H145" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>165</v>
-      </c>
-      <c r="C145">
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146">
         <v>195000</v>
       </c>
-      <c r="D145" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="D146" t="s">
+        <v>148</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
-        <v>166</v>
-      </c>
-      <c r="C146">
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147">
         <v>235000</v>
       </c>
-      <c r="D146" t="s">
-        <v>156</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="D147" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
-        <v>167</v>
-      </c>
-      <c r="C147">
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148">
         <v>340000</v>
       </c>
-      <c r="D147" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="D148" t="s">
+        <v>160</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="H148" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
-        <v>169</v>
-      </c>
-      <c r="C148">
-        <v>415000</v>
-      </c>
-      <c r="D148" t="s">
-        <v>168</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>149</v>
-      </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C149">
         <v>415000</v>
       </c>
       <c r="D149" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C150">
         <v>415000</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151">
+        <v>415000</v>
+      </c>
+      <c r="D151" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="H151" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
